--- a/docs/实验7.统计分析/各阶段统计分析/统计分析实验的方法设计2.0.xlsx
+++ b/docs/实验7.统计分析/各阶段统计分析/统计分析实验的方法设计2.0.xlsx
@@ -4,7 +4,8 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1需求分析" sheetId="5" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="164">
   <si>
     <t>实验名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,6 +637,46 @@
   </si>
   <si>
     <t>根据课堂记录信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,8 +728,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,15 +741,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,7 +1054,10 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1026,37 +1070,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" t="s">
         <v>6</v>
       </c>
@@ -1068,10 +1112,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -1083,13 +1127,13 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>108</v>
       </c>
       <c r="I3">
@@ -1097,8 +1141,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>80</v>
       </c>
@@ -1108,18 +1152,18 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="6"/>
       <c r="I4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>81</v>
       </c>
@@ -1129,18 +1173,18 @@
       <c r="E5">
         <v>1312</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="6"/>
       <c r="I5">
         <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -1152,13 +1196,13 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>109</v>
       </c>
       <c r="I6">
@@ -1166,8 +1210,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>80</v>
       </c>
@@ -1177,18 +1221,18 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="6"/>
       <c r="I7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>81</v>
       </c>
@@ -1198,18 +1242,18 @@
       <c r="E8">
         <v>1256</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="7"/>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="6"/>
       <c r="I8">
         <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
@@ -1221,13 +1265,13 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>110</v>
       </c>
       <c r="I9">
@@ -1235,8 +1279,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>80</v>
       </c>
@@ -1246,11 +1290,11 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>111</v>
       </c>
       <c r="I10">
@@ -1258,8 +1302,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>81</v>
       </c>
@@ -1269,18 +1313,18 @@
       <c r="E11">
         <v>1466</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="3"/>
       <c r="I11">
         <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C12" t="s">
@@ -1292,13 +1336,13 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>80</v>
       </c>
@@ -1308,11 +1352,11 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>81</v>
       </c>
@@ -1322,11 +1366,11 @@
       <c r="E14">
         <v>1503</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C15" t="s">
@@ -1335,31 +1379,31 @@
       <c r="D15" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
@@ -1388,6 +1432,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="A3:A17"/>
@@ -1401,13 +1452,6 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1420,7 +1464,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H14"/>
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1433,37 +1480,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" t="s">
         <v>6</v>
       </c>
@@ -1475,10 +1522,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -1490,13 +1537,13 @@
       <c r="E3">
         <v>75</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="I3">
@@ -1504,8 +1551,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -1515,18 +1562,18 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="8"/>
       <c r="I4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -1536,18 +1583,18 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="8"/>
       <c r="I5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -1559,13 +1606,13 @@
       <c r="E6">
         <v>121</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="8" t="s">
         <v>114</v>
       </c>
       <c r="I6">
@@ -1573,8 +1620,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>87</v>
       </c>
@@ -1584,18 +1631,18 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="8"/>
       <c r="I7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>88</v>
       </c>
@@ -1605,18 +1652,18 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="7"/>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="8"/>
       <c r="I8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
@@ -1628,13 +1675,13 @@
       <c r="E9">
         <v>69</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="8" t="s">
         <v>115</v>
       </c>
       <c r="I9">
@@ -1642,8 +1689,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>87</v>
       </c>
@@ -1653,18 +1700,18 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="8"/>
       <c r="I10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>88</v>
       </c>
@@ -1674,18 +1721,18 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="8"/>
       <c r="I11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C12" t="s">
@@ -1697,13 +1744,13 @@
       <c r="E12">
         <v>114</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>117</v>
       </c>
       <c r="I12">
@@ -1711,8 +1758,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>87</v>
       </c>
@@ -1722,18 +1769,18 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="9"/>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>88</v>
       </c>
@@ -1743,18 +1790,18 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="I14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C15" t="s">
@@ -1766,13 +1813,13 @@
       <c r="E15">
         <v>93</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="8" t="s">
         <v>116</v>
       </c>
       <c r="I15">
@@ -1780,8 +1827,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>87</v>
       </c>
@@ -1791,18 +1838,18 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="8"/>
       <c r="I16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>88</v>
       </c>
@@ -1812,22 +1859,24 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="7"/>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="8"/>
       <c r="I17">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="A3:A17"/>
     <mergeCell ref="B3:B5"/>
@@ -1839,13 +1888,11 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1857,7 +1904,10 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A22"/>
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1870,37 +1920,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" t="s">
         <v>6</v>
       </c>
@@ -1912,10 +1962,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -1927,13 +1977,13 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I3">
@@ -1941,8 +1991,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -1952,18 +2002,18 @@
       <c r="E4">
         <v>408</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="8"/>
       <c r="I4">
         <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -1973,39 +2023,39 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="8"/>
       <c r="I5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -2017,13 +2067,13 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I7">
@@ -2031,8 +2081,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -2042,18 +2092,18 @@
       <c r="E8">
         <v>473</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="7"/>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="8"/>
       <c r="I8">
         <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -2063,39 +2113,39 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="8"/>
       <c r="I9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
@@ -2107,13 +2157,13 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="8" t="s">
         <v>127</v>
       </c>
       <c r="I11">
@@ -2121,8 +2171,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -2132,18 +2182,18 @@
       <c r="E12">
         <v>476</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="8"/>
       <c r="I12">
         <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -2153,39 +2203,39 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="8"/>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
@@ -2197,13 +2247,13 @@
       <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="8" t="s">
         <v>128</v>
       </c>
       <c r="I15">
@@ -2211,8 +2261,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -2222,18 +2272,18 @@
       <c r="E16">
         <v>398</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="8"/>
       <c r="I16">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -2243,39 +2293,39 @@
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="7"/>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="8"/>
       <c r="I17">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C19" t="s">
@@ -2287,13 +2337,13 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="8" t="s">
         <v>127</v>
       </c>
       <c r="I19">
@@ -2301,8 +2351,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -2312,18 +2362,18 @@
       <c r="E20">
         <v>304</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="7"/>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="8"/>
       <c r="I20">
         <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -2333,38 +2383,45 @@
       <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="8"/>
       <c r="I21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="8"/>
+      <c r="I22" s="5" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="H19:H22"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B1:B2"/>
@@ -2381,13 +2438,6 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2396,10 +2446,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B27"/>
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2407,52 +2460,57 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="5" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -2461,57 +2519,106 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="E5">
+        <v>408</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
@@ -2520,57 +2627,106 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="E10">
+        <v>473</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
@@ -2579,57 +2735,106 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="E15">
+        <v>476</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
@@ -2638,57 +2843,106 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="E20">
+        <v>398</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C23" t="s">
@@ -2697,56 +2951,119 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="E25">
+        <v>304</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="23">
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H13:H17"/>
     <mergeCell ref="A3:A27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2756,14 +3073,6 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E8:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,10 +3081,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2783,306 +3095,41 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="5" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" t="s">
         <v>6</v>
       </c>
@@ -3094,337 +3141,339 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>134</v>
+      <c r="H3" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>721</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="7"/>
       <c r="I4">
-        <v>231</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>465</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="I6">
-        <v>3</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E7">
-        <v>733</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="7"/>
       <c r="I7">
-        <v>178</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>391</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
+        <v>2569</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="I9">
-        <v>2</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E10">
-        <v>763</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="7"/>
       <c r="I10">
-        <v>261</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>645</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13">
-        <v>722</v>
-      </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="7"/>
       <c r="I13">
-        <v>245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="F14" s="7"/>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15">
+        <v>874</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15">
+        <v>211</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="H16" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="H17" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>211</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
+  <mergeCells count="19">
+    <mergeCell ref="H3:H17"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="A3:A17"/>
     <mergeCell ref="B3:B5"/>
@@ -3439,6 +3488,416 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="5" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>721</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7">
+        <v>733</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10">
+        <v>763</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13">
+        <v>722</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="F15:F17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -3447,8 +3906,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3463,37 +3925,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" t="s">
         <v>6</v>
       </c>
@@ -3505,10 +3967,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -3517,25 +3979,25 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -3545,18 +4007,18 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>41</v>
       </c>
@@ -3566,18 +4028,18 @@
       <c r="E5">
         <v>1422</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="9">
+      <c r="H5" s="8"/>
+      <c r="I5" s="5">
         <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>43</v>
       </c>
@@ -3587,18 +4049,18 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -3607,25 +4069,25 @@
       <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -3635,18 +4097,18 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="7"/>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -3656,18 +4118,18 @@
       <c r="E9">
         <v>1232</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="9">
+      <c r="H9" s="8"/>
+      <c r="I9" s="5">
         <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>43</v>
       </c>
@@ -3677,18 +4139,18 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
@@ -3697,25 +4159,25 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>47</v>
       </c>
@@ -3725,18 +4187,18 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
@@ -3746,18 +4208,18 @@
       <c r="E13">
         <v>1521</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="9">
+      <c r="H13" s="8"/>
+      <c r="I13" s="5">
         <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>43</v>
       </c>
@@ -3767,18 +4229,18 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
@@ -3787,25 +4249,25 @@
       <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -3815,18 +4277,18 @@
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>51</v>
       </c>
@@ -3836,18 +4298,18 @@
       <c r="E17">
         <v>1621</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="7"/>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="9">
+      <c r="H17" s="8"/>
+      <c r="I17" s="5">
         <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>43</v>
       </c>
@@ -3857,18 +4319,18 @@
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -3877,25 +4339,25 @@
       <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>39</v>
       </c>
@@ -3905,18 +4367,18 @@
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="7"/>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>41</v>
       </c>
@@ -3926,18 +4388,18 @@
       <c r="E21">
         <v>1256</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="9">
+      <c r="H21" s="8"/>
+      <c r="I21" s="5">
         <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>43</v>
       </c>
@@ -3947,26 +4409,17 @@
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="8"/>
+      <c r="I22" s="5" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B19:B22"/>
@@ -3981,6 +4434,15 @@
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="H15:H18"/>
     <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3989,62 +4451,69 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F12"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="4" max="5" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -4053,57 +4522,72 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="E7">
+        <v>1278</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
@@ -4112,57 +4596,72 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="E9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>63</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>64</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
       <c r="D12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="E12">
+        <v>1392</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
@@ -4171,57 +4670,72 @@
       <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>71</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="E17">
+        <v>1743</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
@@ -4230,57 +4744,72 @@
       <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="E19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="E22">
+        <v>1632</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C23" t="s">
@@ -4289,56 +4818,80 @@
       <c r="D23" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" t="s">
         <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27">
+        <v>1376</v>
+      </c>
+      <c r="F27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A3:A27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4348,14 +4901,6 @@
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
